--- a/NRCan_docs/CANMET_ESP-r_Docs_AF/ASHP_Heating_Cap_COP_deltaT_LS.xlsx
+++ b/NRCan_docs/CANMET_ESP-r_Docs_AF/ASHP_Heating_Cap_COP_deltaT_LS.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="24855" windowHeight="11730"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18960" windowHeight="8490" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ASHP (72 Oceanic and ESP-r)" sheetId="1" r:id="rId1"/>
     <sheet name="ASHP Curves" sheetId="3" r:id="rId2"/>
+    <sheet name="ASHP(C)" sheetId="4" r:id="rId3"/>
+    <sheet name="ASHP(C) Curves" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>COP</t>
   </si>
@@ -103,15 +105,42 @@
   <si>
     <t>ESP-r Model of ASHP in Heating Mode</t>
   </si>
+  <si>
+    <t>a_cop</t>
+  </si>
+  <si>
+    <t>b_cop</t>
+  </si>
+  <si>
+    <t>c_cop</t>
+  </si>
+  <si>
+    <t>d_cop</t>
+  </si>
+  <si>
+    <t>e_cop</t>
+  </si>
+  <si>
+    <t>f_cop</t>
+  </si>
+  <si>
+    <t>Int Wet Bulb T (degC)</t>
+  </si>
+  <si>
+    <t>Int Wet Bulb T (degF)</t>
+  </si>
+  <si>
+    <t>Amb T (degF)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,9 +283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -270,6 +296,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,13 +306,29 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -298,6 +343,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1015,11 +1061,20 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="111291008"/>
-        <c:axId val="111321856"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="252655104"/>
+        <c:axId val="252657024"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1737,16 +1792,25 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="111342720"/>
-        <c:axId val="111324160"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="252674048"/>
+        <c:axId val="252663680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111291008"/>
+        <c:axId val="252655104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
           <c:min val="-25"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1765,22 +1829,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="111321856"/>
+        <c:crossAx val="252657024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111321856"/>
+        <c:axId val="252657024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
           <c:min val="-15000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1800,10 +1867,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="111291008"/>
+        <c:crossAx val="252655104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5000"/>
@@ -1815,12 +1885,13 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111324160"/>
+        <c:axId val="252663680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -1839,23 +1910,28 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111342720"/>
+        <c:crossAx val="252674048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111342720"/>
+        <c:axId val="252674048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="111324160"/>
+        <c:crossAx val="252663680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,8 +1946,1662 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13420128259395186"/>
+          <c:y val="0.14132678765500953"/>
+          <c:w val="0.75944069902000311"/>
+          <c:h val="0.72308260053282081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASHP(C)'!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP-r Heat (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$N$15:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$R$15:$R$56</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASHP(C)'!$T$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP-r Cap Rated (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$N$15:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$T$15:$T$56</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASHP(C)'!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heat Spec (kW)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$I$9:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>18.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20.555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-23.333333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$J$9:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>13264.312060949074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12532.286009020318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11829.54099916871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11038.952863085653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10541.1751477741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10219.083684925447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9487.0576329966898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8755.0315810679331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8257.2538657563764</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7613.0709400590713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6998.1690564389155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6617.5155094359616</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6383.2671728187606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5709.8032050443035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5065.6202793469974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4421.4373536496914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3777.2544279523854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3103.7904601779292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="252769024"/>
+        <c:axId val="252770944"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASHP(C)'!$S$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP-r COP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$N$15:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$S$15:$S$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>2.7938494106227356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8612981755603286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9295743535132508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9985591105684875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0681181357132408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1381009653061032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2083404344601623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2786522883973617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3488349890176483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4186697533317889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4879208607752368</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5563362654830111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6236485470974564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6895762293617698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7538254894305929</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8160922723895601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8760648149074761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.933426569369618</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9878595055344257</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0390477511646976</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0866815168251955</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1304612338865274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1701018196322712</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2053369702106949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2359233719921692</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2616447156062716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2823153953006905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2977837798108158</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3079349498689536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3126928116741938</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3120215145726277</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3059261239927302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2944525261703177</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2776865679941798</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2557524619141125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2288105107992529</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1970542295730073</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1607069582770526</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1200180741447463</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0752589178705678</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0267185514965043</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9746994624948897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASHP(C)'!$U$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESP-r COP Rated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$N$15:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$U$15:$U$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASHP(C)'!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COP Spec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$I$9:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>18.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20.555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-23.333333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ASHP(C)'!$L$9:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.7898034459854499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6859664732412698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5847093936874881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3451372312380765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2941172336794065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1934636515392021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0603411719344162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8242037358283656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6636302792762505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.537690313353024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3327230188129717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2819018998055038</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.201126611316814</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0392154303729657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8091500997667849</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6375693902406265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4527901645970713</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1937655616068958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="253430784"/>
+        <c:axId val="253428864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="252769024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Outdoor ambient temperature (degC)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="252770944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="252770944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="-15000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacity (W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="252769024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5000"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253428864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>COP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="253430784"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253430784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="253428864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1890,7 +3620,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1901,12 +3642,39 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8666963" cy="6297521"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8666963" cy="6297521"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1" noMove="1" noResize="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1935,34 +3703,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1999,6 +3767,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2033,6 +3802,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2114,7 +3884,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2123,7 +3893,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2132,7 +3902,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2208,14 +3978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2236,8 +4006,8 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
@@ -2259,7 +4029,7 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="23"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -2274,14 +4044,14 @@
       <c r="K3" s="13"/>
       <c r="L3" s="11"/>
       <c r="N3" s="24"/>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="2:18">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2296,16 +4066,16 @@
       <c r="K4" s="13"/>
       <c r="L4" s="11"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="13"/>
@@ -2318,16 +4088,16 @@
       <c r="K5" s="13"/>
       <c r="L5" s="11"/>
       <c r="N5" s="24"/>
-      <c r="O5" s="28">
-        <v>10750</v>
-      </c>
-      <c r="P5" s="29">
-        <v>3.3</v>
-      </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="2:18" ht="15.75" thickBot="1">
+      <c r="O5" s="27">
+        <v>10750</v>
+      </c>
+      <c r="P5" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="26"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2342,12 +4112,12 @@
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
       <c r="N6" s="24"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -2365,16 +4135,16 @@
       <c r="N7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <v>0.76683599999999996</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>0.84639399999999998</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
@@ -2408,16 +4178,16 @@
       <c r="N8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>2.7487000000000001E-2</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>1.8818999999999999E-2</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>70</v>
       </c>
@@ -2456,16 +4226,16 @@
       <c r="N9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="25">
         <v>2.8936000000000001E-4</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="29">
         <v>-6.3728799999999999E-5</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>70</v>
       </c>
@@ -2504,16 +4274,16 @@
       <c r="N10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="29">
         <v>-1.4657999999999999E-5</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="29">
         <v>-9.1658969999999999E-6</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-    </row>
-    <row r="11" spans="2:18" ht="15.75" thickBot="1">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>70</v>
       </c>
@@ -2549,19 +4319,19 @@
         <f t="shared" si="3"/>
         <v>3.5847093936874881</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="35">
         <v>-5.6529600000000001E-7</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <v>-1.99907E-8</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>70</v>
       </c>
@@ -2598,12 +4368,12 @@
         <v>3.3451372312380765</v>
       </c>
       <c r="N12" s="24"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>70</v>
       </c>
@@ -2642,20 +4412,20 @@
       <c r="N13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>70</v>
       </c>
@@ -2694,24 +4464,24 @@
       <c r="N14" s="24">
         <v>20</v>
       </c>
-      <c r="O14" s="28">
-        <f>O$5*(O$7+O$8*$N14+O$9*$N14^2+O$10*$N14^3+O$11*$N14^4)</f>
+      <c r="O14" s="27">
+        <f t="shared" ref="O14:P33" si="4">O$5*(O$7+O$8*$N14+O$9*$N14^2+O$10*$N14^3+O$11*$N14^4)</f>
         <v>13164.542880000001</v>
       </c>
-      <c r="P14" s="29">
-        <f>P$5*(P$7+P$8*$N14+P$9*$N14^2+P$10*$N14^3+P$11*$N14^4)</f>
+      <c r="P14" s="28">
+        <f t="shared" si="4"/>
         <v>3.6984974135999993</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="27">
         <f>O$5</f>
         <v>10750</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="30">
         <f>P$5</f>
         <v>3.3</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>70</v>
       </c>
@@ -2750,24 +4520,24 @@
       <c r="N15" s="24">
         <v>19</v>
       </c>
-      <c r="O15" s="28">
-        <f>O$5*(O$7+O$8*$N15+O$9*$N15^2+O$10*$N15^3+O$11*$N15^4)</f>
+      <c r="O15" s="27">
+        <f t="shared" si="4"/>
         <v>13107.892078328001</v>
       </c>
-      <c r="P15" s="29">
-        <f>P$5*(P$7+P$8*$N15+P$9*$N15^2+P$10*$N15^3+P$11*$N15^4)</f>
+      <c r="P15" s="28">
+        <f t="shared" si="4"/>
         <v>3.6810668652855889</v>
       </c>
-      <c r="Q15" s="28">
-        <f t="shared" ref="Q15:Q55" si="4">O$5</f>
-        <v>10750</v>
-      </c>
-      <c r="R15" s="31">
-        <f t="shared" ref="R15:R55" si="5">P$5</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="Q15" s="27">
+        <f t="shared" ref="Q15:Q55" si="5">O$5</f>
+        <v>10750</v>
+      </c>
+      <c r="R15" s="30">
+        <f t="shared" ref="R15:R55" si="6">P$5</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>70</v>
       </c>
@@ -2806,24 +4576,24 @@
       <c r="N16" s="24">
         <v>18</v>
       </c>
-      <c r="O16" s="28">
-        <f>O$5*(O$7+O$8*$N16+O$9*$N16^2+O$10*$N16^3+O$11*$N16^4)</f>
+      <c r="O16" s="27">
+        <f t="shared" si="4"/>
         <v>13013.161714368</v>
       </c>
-      <c r="P16" s="29">
-        <f>P$5*(P$7+P$8*$N16+P$9*$N16^2+P$10*$N16^3+P$11*$N16^4)</f>
+      <c r="P16" s="28">
+        <f t="shared" si="4"/>
         <v>3.6594815854502398</v>
       </c>
-      <c r="Q16" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R16" s="31">
+      <c r="Q16" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R16" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>70</v>
       </c>
@@ -2862,24 +4632,24 @@
       <c r="N17" s="24">
         <v>17</v>
       </c>
-      <c r="O17" s="28">
-        <f>O$5*(O$7+O$8*$N17+O$9*$N17^2+O$10*$N17^3+O$11*$N17^4)</f>
+      <c r="O17" s="27">
+        <f t="shared" si="4"/>
         <v>12883.995386928</v>
       </c>
-      <c r="P17" s="29">
-        <f>P$5*(P$7+P$8*$N17+P$9*$N17^2+P$10*$N17^3+P$11*$N17^4)</f>
+      <c r="P17" s="28">
+        <f t="shared" si="4"/>
         <v>3.6339523492281893</v>
       </c>
-      <c r="Q17" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R17" s="31">
+      <c r="Q17" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R17" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>70</v>
       </c>
@@ -2918,24 +4688,24 @@
       <c r="N18" s="24">
         <v>16</v>
       </c>
-      <c r="O18" s="28">
-        <f>O$5*(O$7+O$8*$N18+O$9*$N18^2+O$10*$N18^3+O$11*$N18^4)</f>
+      <c r="O18" s="27">
+        <f t="shared" si="4"/>
         <v>12723.890848448</v>
       </c>
-      <c r="P18" s="29">
-        <f>P$5*(P$7+P$8*$N18+P$9*$N18^2+P$10*$N18^3+P$11*$N18^4)</f>
+      <c r="P18" s="28">
+        <f t="shared" si="4"/>
         <v>3.6046883484902392</v>
       </c>
-      <c r="Q18" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R18" s="31">
+      <c r="Q18" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R18" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>70</v>
       </c>
@@ -2974,24 +4744,24 @@
       <c r="N19" s="24">
         <v>15</v>
       </c>
-      <c r="O19" s="28">
-        <f>O$5*(O$7+O$8*$N19+O$9*$N19^2+O$10*$N19^3+O$11*$N19^4)</f>
+      <c r="O19" s="27">
+        <f t="shared" si="4"/>
         <v>12536.200005000001</v>
       </c>
-      <c r="P19" s="29">
-        <f>P$5*(P$7+P$8*$N19+P$9*$N19^2+P$10*$N19^3+P$11*$N19^4)</f>
+      <c r="P19" s="28">
+        <f t="shared" si="4"/>
         <v>3.5718971918437497</v>
       </c>
-      <c r="Q19" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R19" s="31">
+      <c r="Q19" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R19" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>70</v>
       </c>
@@ -3030,24 +4800,24 @@
       <c r="N20" s="24">
         <v>14</v>
       </c>
-      <c r="O20" s="28">
-        <f>O$5*(O$7+O$8*$N20+O$9*$N20^2+O$10*$N20^3+O$11*$N20^4)</f>
+      <c r="O20" s="27">
+        <f t="shared" si="4"/>
         <v>12324.128916288</v>
       </c>
-      <c r="P20" s="29">
-        <f>P$5*(P$7+P$8*$N20+P$9*$N20^2+P$10*$N20^3+P$11*$N20^4)</f>
+      <c r="P20" s="28">
+        <f t="shared" si="4"/>
         <v>3.5357849046326386</v>
       </c>
-      <c r="Q20" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R20" s="31">
+      <c r="Q20" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R20" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>70</v>
       </c>
@@ -3086,24 +4856,24 @@
       <c r="N21" s="24">
         <v>13</v>
       </c>
-      <c r="O21" s="28">
-        <f>O$5*(O$7+O$8*$N21+O$9*$N21^2+O$10*$N21^3+O$11*$N21^4)</f>
+      <c r="O21" s="27">
+        <f t="shared" si="4"/>
         <v>12090.737795648</v>
       </c>
-      <c r="P21" s="29">
-        <f>P$5*(P$7+P$8*$N21+P$9*$N21^2+P$10*$N21^3+P$11*$N21^4)</f>
+      <c r="P21" s="28">
+        <f t="shared" si="4"/>
         <v>3.4965559289373895</v>
       </c>
-      <c r="Q21" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R21" s="31">
+      <c r="Q21" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R21" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>70</v>
       </c>
@@ -3142,24 +4912,24 @@
       <c r="N22" s="24">
         <v>12</v>
       </c>
-      <c r="O22" s="28">
-        <f>O$5*(O$7+O$8*$N22+O$9*$N22^2+O$10*$N22^3+O$11*$N22^4)</f>
+      <c r="O22" s="27">
+        <f t="shared" si="4"/>
         <v>11838.941010048</v>
       </c>
-      <c r="P22" s="29">
-        <f>P$5*(P$7+P$8*$N22+P$9*$N22^2+P$10*$N22^3+P$11*$N22^4)</f>
+      <c r="P22" s="28">
+        <f t="shared" si="4"/>
         <v>3.4544131235750393</v>
       </c>
-      <c r="Q22" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R22" s="31">
+      <c r="Q22" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R22" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>70</v>
       </c>
@@ -3198,24 +4968,24 @@
       <c r="N23" s="24">
         <v>11</v>
       </c>
-      <c r="O23" s="28">
-        <f>O$5*(O$7+O$8*$N23+O$9*$N23^2+O$10*$N23^3+O$11*$N23^4)</f>
+      <c r="O23" s="27">
+        <f t="shared" si="4"/>
         <v>11571.507080087997</v>
       </c>
-      <c r="P23" s="29">
-        <f>P$5*(P$7+P$8*$N23+P$9*$N23^2+P$10*$N23^3+P$11*$N23^4)</f>
+      <c r="P23" s="28">
+        <f t="shared" si="4"/>
         <v>3.4095577640991896</v>
       </c>
-      <c r="Q23" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R23" s="31">
+      <c r="Q23" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R23" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>70</v>
       </c>
@@ -3254,24 +5024,24 @@
       <c r="N24" s="24">
         <v>10</v>
       </c>
-      <c r="O24" s="28">
-        <f>O$5*(O$7+O$8*$N24+O$9*$N24^2+O$10*$N24^3+O$11*$N24^4)</f>
+      <c r="O24" s="27">
+        <f t="shared" si="4"/>
         <v>11291.058680000002</v>
       </c>
-      <c r="P24" s="29">
-        <f>P$5*(P$7+P$8*$N24+P$9*$N24^2+P$10*$N24^3+P$11*$N24^4)</f>
+      <c r="P24" s="28">
+        <f t="shared" si="4"/>
         <v>3.3621895427999995</v>
       </c>
-      <c r="Q24" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R24" s="31">
+      <c r="Q24" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R24" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>70</v>
       </c>
@@ -3310,24 +5080,24 @@
       <c r="N25" s="24">
         <v>9</v>
       </c>
-      <c r="O25" s="28">
-        <f>O$5*(O$7+O$8*$N25+O$9*$N25^2+O$10*$N25^3+O$11*$N25^4)</f>
+      <c r="O25" s="27">
+        <f t="shared" si="4"/>
         <v>11000.072637648</v>
       </c>
-      <c r="P25" s="29">
-        <f>P$5*(P$7+P$8*$N25+P$9*$N25^2+P$10*$N25^3+P$11*$N25^4)</f>
+      <c r="P25" s="28">
+        <f t="shared" si="4"/>
         <v>3.3125065687041904</v>
       </c>
-      <c r="Q25" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R25" s="31">
+      <c r="Q25" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" thickBot="1">
+        <v>10750</v>
+      </c>
+      <c r="R25" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>70</v>
       </c>
@@ -3366,629 +5136,629 @@
       <c r="N26" s="24">
         <v>8.5</v>
       </c>
-      <c r="O26" s="28">
-        <f>O$5*(O$7+O$8*$N26+O$9*$N26^2+O$10*$N26^3+O$11*$N26^4)</f>
+      <c r="O26" s="27">
+        <f t="shared" si="4"/>
         <v>10851.362129464251</v>
       </c>
-      <c r="P26" s="29">
-        <f>P$5*(P$7+P$8*$N26+P$9*$N26^2+P$10*$N26^3+P$11*$N26^4)</f>
+      <c r="P26" s="28">
+        <f t="shared" si="4"/>
         <v>3.2868585255048051</v>
       </c>
-      <c r="Q26" s="28">
-        <f t="shared" ref="Q26" si="6">O$5</f>
-        <v>10750</v>
-      </c>
-      <c r="R26" s="31">
-        <f t="shared" ref="R26" si="7">P$5</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="Q26" s="27">
+        <f t="shared" ref="Q26" si="7">O$5</f>
+        <v>10750</v>
+      </c>
+      <c r="R26" s="30">
+        <f t="shared" ref="R26" si="8">P$5</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N27" s="24">
         <v>8</v>
       </c>
-      <c r="O27" s="28">
-        <f>O$5*(O$7+O$8*$N27+O$9*$N27^2+O$10*$N27^3+O$11*$N27^4)</f>
+      <c r="O27" s="27">
+        <f t="shared" si="4"/>
         <v>10700.879934527999</v>
       </c>
-      <c r="P27" s="29">
-        <f>P$5*(P$7+P$8*$N27+P$9*$N27^2+P$10*$N27^3+P$11*$N27^4)</f>
+      <c r="P27" s="28">
+        <f t="shared" si="4"/>
         <v>3.2607053675750395</v>
       </c>
-      <c r="Q27" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R27" s="31">
+      <c r="Q27" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R27" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N28" s="24">
         <v>7</v>
       </c>
-      <c r="O28" s="28">
-        <f>O$5*(O$7+O$8*$N28+O$9*$N28^2+O$10*$N28^3+O$11*$N28^4)</f>
+      <c r="O28" s="27">
+        <f t="shared" si="4"/>
         <v>10395.665705767999</v>
       </c>
-      <c r="P28" s="29">
-        <f>P$5*(P$7+P$8*$N28+P$9*$N28^2+P$10*$N28^3+P$11*$N28^4)</f>
+      <c r="P28" s="28">
+        <f t="shared" si="4"/>
         <v>3.2069808819123899</v>
       </c>
-      <c r="Q28" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R28" s="31">
+      <c r="Q28" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R28" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N29" s="24">
         <v>6</v>
       </c>
-      <c r="O29" s="28">
-        <f>O$5*(O$7+O$8*$N29+O$9*$N29^2+O$10*$N29^3+O$11*$N29^4)</f>
+      <c r="O29" s="27">
+        <f t="shared" si="4"/>
         <v>10086.469240127999</v>
       </c>
-      <c r="P29" s="29">
-        <f>P$5*(P$7+P$8*$N29+P$9*$N29^2+P$10*$N29^3+P$11*$N29^4)</f>
+      <c r="P29" s="28">
+        <f t="shared" si="4"/>
         <v>3.1515264709526396</v>
       </c>
-      <c r="Q29" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R29" s="31">
+      <c r="Q29" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N30" s="24">
         <v>5</v>
       </c>
-      <c r="O30" s="28">
-        <f>O$5*(O$7+O$8*$N30+O$9*$N30^2+O$10*$N30^3+O$11*$N30^4)</f>
+      <c r="O30" s="27">
+        <f t="shared" si="4"/>
         <v>9775.183979999998</v>
       </c>
-      <c r="P30" s="29">
-        <f>P$5*(P$7+P$8*$N30+P$9*$N30^2+P$10*$N30^3+P$11*$N30^4)</f>
+      <c r="P30" s="28">
+        <f t="shared" si="4"/>
         <v>3.0945339106687499</v>
       </c>
-      <c r="Q30" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R30" s="31">
+      <c r="Q30" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R30" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N31" s="24">
         <v>4</v>
       </c>
-      <c r="O31" s="28">
-        <f>O$5*(O$7+O$8*$N31+O$9*$N31^2+O$10*$N31^3+O$11*$N31^4)</f>
+      <c r="O31" s="27">
+        <f t="shared" si="4"/>
         <v>9463.557521408</v>
       </c>
-      <c r="P31" s="29">
-        <f>P$5*(P$7+P$8*$N31+P$9*$N31^2+P$10*$N31^3+P$11*$N31^4)</f>
+      <c r="P31" s="28">
+        <f t="shared" si="4"/>
         <v>3.0361933937702394</v>
       </c>
-      <c r="Q31" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R31" s="31">
+      <c r="Q31" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18">
+        <v>10750</v>
+      </c>
+      <c r="R31" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N32" s="24">
         <v>3</v>
       </c>
-      <c r="O32" s="28">
-        <f>O$5*(O$7+O$8*$N32+O$9*$N32^2+O$10*$N32^3+O$11*$N32^4)</f>
+      <c r="O32" s="27">
+        <f t="shared" si="4"/>
         <v>9153.1916140079993</v>
       </c>
-      <c r="P32" s="29">
-        <f>P$5*(P$7+P$8*$N32+P$9*$N32^2+P$10*$N32^3+P$11*$N32^4)</f>
+      <c r="P32" s="28">
+        <f t="shared" si="4"/>
         <v>2.9766935297031898</v>
       </c>
-      <c r="Q32" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R32" s="31">
+      <c r="Q32" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="33" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R32" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N33" s="24">
         <v>2</v>
       </c>
-      <c r="O33" s="28">
-        <f>O$5*(O$7+O$8*$N33+O$9*$N33^2+O$10*$N33^3+O$11*$N33^4)</f>
+      <c r="O33" s="27">
+        <f t="shared" si="4"/>
         <v>8845.5421610879985</v>
       </c>
-      <c r="P33" s="29">
-        <f>P$5*(P$7+P$8*$N33+P$9*$N33^2+P$10*$N33^3+P$11*$N33^4)</f>
+      <c r="P33" s="28">
+        <f t="shared" si="4"/>
         <v>2.9162213446502401</v>
       </c>
-      <c r="Q33" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R33" s="31">
+      <c r="Q33" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="34" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R33" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N34" s="24">
         <v>1</v>
       </c>
-      <c r="O34" s="28">
-        <f>O$5*(O$7+O$8*$N34+O$9*$N34^2+O$10*$N34^3+O$11*$N34^4)</f>
+      <c r="O34" s="27">
+        <f t="shared" ref="O34:P55" si="9">O$5*(O$7+O$8*$N34+O$9*$N34^2+O$10*$N34^3+O$11*$N34^4)</f>
         <v>8541.9192195680007</v>
       </c>
-      <c r="P34" s="29">
-        <f>P$5*(P$7+P$8*$N34+P$9*$N34^2+P$10*$N34^3+P$11*$N34^4)</f>
+      <c r="P34" s="28">
+        <f t="shared" si="9"/>
         <v>2.85496228153059</v>
       </c>
-      <c r="Q34" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R34" s="31">
+      <c r="Q34" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="35" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R34" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N35" s="24">
         <v>0</v>
       </c>
-      <c r="O35" s="28">
-        <f>O$5*(O$7+O$8*$N35+O$9*$N35^2+O$10*$N35^3+O$11*$N35^4)</f>
+      <c r="O35" s="27">
+        <f t="shared" si="9"/>
         <v>8243.4869999999992</v>
       </c>
-      <c r="P35" s="29">
-        <f>P$5*(P$7+P$8*$N35+P$9*$N35^2+P$10*$N35^3+P$11*$N35^4)</f>
+      <c r="P35" s="28">
+        <f t="shared" si="9"/>
         <v>2.7931001999999996</v>
       </c>
-      <c r="Q35" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R35" s="31">
+      <c r="Q35" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="36" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R35" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N36" s="24">
         <v>-1</v>
       </c>
-      <c r="O36" s="28">
-        <f>O$5*(O$7+O$8*$N36+O$9*$N36^2+O$10*$N36^3+O$11*$N36^4)</f>
+      <c r="O36" s="27">
+        <f t="shared" si="9"/>
         <v>7951.2638665679997</v>
       </c>
-      <c r="P36" s="29">
-        <f>P$5*(P$7+P$8*$N36+P$9*$N36^2+P$10*$N36^3+P$11*$N36^4)</f>
+      <c r="P36" s="28">
+        <f t="shared" si="9"/>
         <v>2.7308173764507893</v>
       </c>
-      <c r="Q36" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R36" s="31">
+      <c r="Q36" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="37" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R36" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N37" s="24">
         <v>-2</v>
       </c>
-      <c r="O37" s="28">
-        <f>O$5*(O$7+O$8*$N37+O$9*$N37^2+O$10*$N37^3+O$11*$N37^4)</f>
+      <c r="O37" s="27">
+        <f t="shared" si="9"/>
         <v>7666.1223370879989</v>
       </c>
-      <c r="P37" s="29">
-        <f>P$5*(P$7+P$8*$N37+P$9*$N37^2+P$10*$N37^3+P$11*$N37^4)</f>
+      <c r="P37" s="28">
+        <f t="shared" si="9"/>
         <v>2.6682945040118398</v>
       </c>
-      <c r="Q37" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R37" s="31">
+      <c r="Q37" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="38" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R37" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N38" s="24">
         <v>-3</v>
       </c>
-      <c r="O38" s="28">
-        <f>O$5*(O$7+O$8*$N38+O$9*$N38^2+O$10*$N38^3+O$11*$N38^4)</f>
+      <c r="O38" s="27">
+        <f t="shared" si="9"/>
         <v>7388.7890830079996</v>
       </c>
-      <c r="P38" s="29">
-        <f>P$5*(P$7+P$8*$N38+P$9*$N38^2+P$10*$N38^3+P$11*$N38^4)</f>
+      <c r="P38" s="28">
+        <f t="shared" si="9"/>
         <v>2.6057106925485902</v>
       </c>
-      <c r="Q38" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R38" s="31">
+      <c r="Q38" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="39" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R38" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N39" s="24">
         <v>-4</v>
       </c>
-      <c r="O39" s="28">
-        <f>O$5*(O$7+O$8*$N39+O$9*$N39^2+O$10*$N39^3+O$11*$N39^4)</f>
+      <c r="O39" s="27">
+        <f t="shared" si="9"/>
         <v>7119.844929408001</v>
       </c>
-      <c r="P39" s="29">
-        <f>P$5*(P$7+P$8*$N39+P$9*$N39^2+P$10*$N39^3+P$11*$N39^4)</f>
+      <c r="P39" s="28">
+        <f t="shared" si="9"/>
         <v>2.5432434686630399</v>
       </c>
-      <c r="Q39" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R39" s="31">
+      <c r="Q39" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="40" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R39" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N40" s="24">
         <v>-5</v>
       </c>
-      <c r="O40" s="28">
-        <f>O$5*(O$7+O$8*$N40+O$9*$N40^2+O$10*$N40^3+O$11*$N40^4)</f>
+      <c r="O40" s="27">
+        <f t="shared" si="9"/>
         <v>6859.7248549999986</v>
       </c>
-      <c r="P40" s="29">
-        <f>P$5*(P$7+P$8*$N40+P$9*$N40^2+P$10*$N40^3+P$11*$N40^4)</f>
+      <c r="P40" s="28">
+        <f t="shared" si="9"/>
         <v>2.4810687756937497</v>
       </c>
-      <c r="Q40" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R40" s="31">
+      <c r="Q40" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="41" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R40" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N41" s="24">
         <v>-6</v>
       </c>
-      <c r="O41" s="28">
-        <f>O$5*(O$7+O$8*$N41+O$9*$N41^2+O$10*$N41^3+O$11*$N41^4)</f>
+      <c r="O41" s="27">
+        <f t="shared" si="9"/>
         <v>6608.7179921280003</v>
       </c>
-      <c r="P41" s="29">
-        <f>P$5*(P$7+P$8*$N41+P$9*$N41^2+P$10*$N41^3+P$11*$N41^4)</f>
+      <c r="P41" s="28">
+        <f t="shared" si="9"/>
         <v>2.4193609737158397</v>
       </c>
-      <c r="Q41" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R41" s="31">
+      <c r="Q41" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="42" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R41" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N42" s="24">
         <v>-7</v>
       </c>
-      <c r="O42" s="28">
-        <f>O$5*(O$7+O$8*$N42+O$9*$N42^2+O$10*$N42^3+O$11*$N42^4)</f>
+      <c r="O42" s="27">
+        <f t="shared" si="9"/>
         <v>6366.9676267680006</v>
       </c>
-      <c r="P42" s="29">
-        <f>P$5*(P$7+P$8*$N42+P$9*$N42^2+P$10*$N42^3+P$11*$N42^4)</f>
+      <c r="P42" s="28">
+        <f t="shared" si="9"/>
         <v>2.3582928395409901</v>
       </c>
-      <c r="Q42" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R42" s="31">
+      <c r="Q42" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="43" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R42" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="43" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N43" s="24">
         <v>-8</v>
       </c>
-      <c r="O43" s="28">
-        <f>O$5*(O$7+O$8*$N43+O$9*$N43^2+O$10*$N43^3+O$11*$N43^4)</f>
+      <c r="O43" s="27">
+        <f t="shared" si="9"/>
         <v>6134.471198528001</v>
       </c>
-      <c r="P43" s="29">
-        <f>P$5*(P$7+P$8*$N43+P$9*$N43^2+P$10*$N43^3+P$11*$N43^4)</f>
+      <c r="P43" s="28">
+        <f t="shared" si="9"/>
         <v>2.2980355667174401</v>
       </c>
-      <c r="Q43" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R43" s="31">
+      <c r="Q43" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="44" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R43" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="44" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N44" s="24">
         <v>-9</v>
       </c>
-      <c r="O44" s="28">
-        <f>O$5*(O$7+O$8*$N44+O$9*$N44^2+O$10*$N44^3+O$11*$N44^4)</f>
+      <c r="O44" s="27">
+        <f t="shared" si="9"/>
         <v>5911.0803006479991</v>
       </c>
-      <c r="P44" s="29">
-        <f>P$5*(P$7+P$8*$N44+P$9*$N44^2+P$10*$N44^3+P$11*$N44^4)</f>
+      <c r="P44" s="28">
+        <f t="shared" si="9"/>
         <v>2.2387587655299894</v>
       </c>
-      <c r="Q44" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R44" s="31">
+      <c r="Q44" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="45" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R44" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N45" s="24">
         <v>-10</v>
       </c>
-      <c r="O45" s="28">
-        <f>O$5*(O$7+O$8*$N45+O$9*$N45^2+O$10*$N45^3+O$11*$N45^4)</f>
+      <c r="O45" s="27">
+        <f t="shared" si="9"/>
         <v>5696.5006799999992</v>
       </c>
-      <c r="P45" s="29">
-        <f>P$5*(P$7+P$8*$N45+P$9*$N45^2+P$10*$N45^3+P$11*$N45^4)</f>
+      <c r="P45" s="28">
+        <f t="shared" si="9"/>
         <v>2.180630463</v>
       </c>
-      <c r="Q45" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R45" s="31">
+      <c r="Q45" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="46" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R45" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="46" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N46" s="24">
         <v>-11</v>
       </c>
-      <c r="O46" s="28">
-        <f>O$5*(O$7+O$8*$N46+O$9*$N46^2+O$10*$N46^3+O$11*$N46^4)</f>
+      <c r="O46" s="27">
+        <f t="shared" si="9"/>
         <v>5490.2922370879987</v>
       </c>
-      <c r="P46" s="29">
-        <f>P$5*(P$7+P$8*$N46+P$9*$N46^2+P$10*$N46^3+P$11*$N46^4)</f>
+      <c r="P46" s="28">
+        <f t="shared" si="9"/>
         <v>2.1238171028853898</v>
       </c>
-      <c r="Q46" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R46" s="31">
+      <c r="Q46" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="47" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R46" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="47" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N47" s="24">
         <v>-12</v>
       </c>
-      <c r="O47" s="28">
-        <f>O$5*(O$7+O$8*$N47+O$9*$N47^2+O$10*$N47^3+O$11*$N47^4)</f>
+      <c r="O47" s="27">
+        <f t="shared" si="9"/>
         <v>5291.8690260479998</v>
       </c>
-      <c r="P47" s="29">
-        <f>P$5*(P$7+P$8*$N47+P$9*$N47^2+P$10*$N47^3+P$11*$N47^4)</f>
+      <c r="P47" s="28">
+        <f t="shared" si="9"/>
         <v>2.0684835456806403</v>
       </c>
-      <c r="Q47" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R47" s="31">
+      <c r="Q47" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="48" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R47" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="48" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N48" s="24">
         <v>-13</v>
       </c>
-      <c r="O48" s="28">
-        <f>O$5*(O$7+O$8*$N48+O$9*$N48^2+O$10*$N48^3+O$11*$N48^4)</f>
+      <c r="O48" s="27">
+        <f t="shared" si="9"/>
         <v>5100.4992546479998</v>
       </c>
-      <c r="P48" s="29">
-        <f>P$5*(P$7+P$8*$N48+P$9*$N48^2+P$10*$N48^3+P$11*$N48^4)</f>
+      <c r="P48" s="28">
+        <f t="shared" si="9"/>
         <v>2.0147930686167901</v>
       </c>
-      <c r="Q48" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R48" s="31">
+      <c r="Q48" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="49" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R48" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="49" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N49" s="24">
         <v>-14</v>
       </c>
-      <c r="O49" s="28">
-        <f>O$5*(O$7+O$8*$N49+O$9*$N49^2+O$10*$N49^3+O$11*$N49^4)</f>
+      <c r="O49" s="27">
+        <f t="shared" si="9"/>
         <v>4915.3052842879997</v>
       </c>
-      <c r="P49" s="29">
-        <f>P$5*(P$7+P$8*$N49+P$9*$N49^2+P$10*$N49^3+P$11*$N49^4)</f>
+      <c r="P49" s="28">
+        <f t="shared" si="9"/>
         <v>1.9629073656614402</v>
       </c>
-      <c r="Q49" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R49" s="31">
+      <c r="Q49" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="50" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R49" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="50" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N50" s="24">
         <v>-15</v>
       </c>
-      <c r="O50" s="28">
-        <f>O$5*(O$7+O$8*$N50+O$9*$N50^2+O$10*$N50^3+O$11*$N50^4)</f>
+      <c r="O50" s="27">
+        <f t="shared" si="9"/>
         <v>4735.2636299999995</v>
       </c>
-      <c r="P50" s="29">
-        <f>P$5*(P$7+P$8*$N50+P$9*$N50^2+P$10*$N50^3+P$11*$N50^4)</f>
+      <c r="P50" s="28">
+        <f t="shared" si="9"/>
         <v>1.9129865475187497</v>
       </c>
-      <c r="Q50" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R50" s="31">
+      <c r="Q50" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="51" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R50" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="51" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N51" s="24">
         <v>-16</v>
       </c>
-      <c r="O51" s="28">
-        <f>O$5*(O$7+O$8*$N51+O$9*$N51^2+O$10*$N51^3+O$11*$N51^4)</f>
+      <c r="O51" s="27">
+        <f t="shared" si="9"/>
         <v>4559.2049604479989</v>
       </c>
-      <c r="P51" s="29">
-        <f>P$5*(P$7+P$8*$N51+P$9*$N51^2+P$10*$N51^3+P$11*$N51^4)</f>
+      <c r="P51" s="28">
+        <f t="shared" si="9"/>
         <v>1.8651891416294397</v>
       </c>
-      <c r="Q51" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R51" s="31">
+      <c r="Q51" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="52" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R51" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="52" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N52" s="24">
         <v>-17</v>
       </c>
-      <c r="O52" s="28">
-        <f>O$5*(O$7+O$8*$N52+O$9*$N52^2+O$10*$N52^3+O$11*$N52^4)</f>
+      <c r="O52" s="27">
+        <f t="shared" si="9"/>
         <v>4385.8140979279997</v>
       </c>
-      <c r="P52" s="29">
-        <f>P$5*(P$7+P$8*$N52+P$9*$N52^2+P$10*$N52^3+P$11*$N52^4)</f>
+      <c r="P52" s="28">
+        <f t="shared" si="9"/>
         <v>1.8196720921707903</v>
       </c>
-      <c r="Q52" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R52" s="31">
+      <c r="Q52" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="53" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R52" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N53" s="24">
         <v>-18</v>
       </c>
-      <c r="O53" s="28">
-        <f>O$5*(O$7+O$8*$N53+O$9*$N53^2+O$10*$N53^3+O$11*$N53^4)</f>
+      <c r="O53" s="27">
+        <f t="shared" si="9"/>
         <v>4213.6300183679996</v>
       </c>
-      <c r="P53" s="29">
-        <f>P$5*(P$7+P$8*$N53+P$9*$N53^2+P$10*$N53^3+P$11*$N53^4)</f>
+      <c r="P53" s="28">
+        <f t="shared" si="9"/>
         <v>1.77659076005664</v>
       </c>
-      <c r="Q53" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R53" s="31">
+      <c r="Q53" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="54" spans="14:18">
+        <v>10750</v>
+      </c>
+      <c r="R53" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N54" s="24">
         <v>-19</v>
       </c>
-      <c r="O54" s="28">
-        <f>O$5*(O$7+O$8*$N54+O$9*$N54^2+O$10*$N54^3+O$11*$N54^4)</f>
+      <c r="O54" s="27">
+        <f t="shared" si="9"/>
         <v>4041.0458513279996</v>
       </c>
-      <c r="P54" s="29">
-        <f>P$5*(P$7+P$8*$N54+P$9*$N54^2+P$10*$N54^3+P$11*$N54^4)</f>
+      <c r="P54" s="28">
+        <f t="shared" si="9"/>
         <v>1.73609892293739</v>
       </c>
-      <c r="Q54" s="28">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R54" s="31">
+      <c r="Q54" s="27">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="55" spans="14:18" ht="15.75" thickBot="1">
-      <c r="N55" s="32">
+        <v>10750</v>
+      </c>
+      <c r="R54" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="55" spans="14:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="31">
         <v>-20</v>
       </c>
-      <c r="O55" s="33">
-        <f>O$5*(O$7+O$8*$N55+O$9*$N55^2+O$10*$N55^3+O$11*$N55^4)</f>
+      <c r="O55" s="32">
+        <f t="shared" si="9"/>
         <v>3866.3088799999996</v>
       </c>
-      <c r="P55" s="34">
-        <f>P$5*(P$7+P$8*$N55+P$9*$N55^2+P$10*$N55^3+P$11*$N55^4)</f>
+      <c r="P55" s="33">
+        <f t="shared" si="9"/>
         <v>1.6983487751999999</v>
       </c>
-      <c r="Q55" s="33">
-        <f t="shared" si="4"/>
-        <v>10750</v>
-      </c>
-      <c r="R55" s="35">
+      <c r="Q55" s="32">
         <f t="shared" si="5"/>
+        <v>10750</v>
+      </c>
+      <c r="R55" s="34">
+        <f t="shared" si="6"/>
         <v>3.3</v>
       </c>
     </row>
@@ -3998,4 +5768,2306 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U56"/>
+  <sheetViews>
+    <sheetView topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="N2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="27">
+        <v>10750</v>
+      </c>
+      <c r="S5" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="11"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25">
+        <v>-0.96177869999999999</v>
+      </c>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25">
+        <v>4.8177499999999998E-2</v>
+      </c>
+      <c r="T8" s="25"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>70</v>
+      </c>
+      <c r="C9" s="9">
+        <v>65</v>
+      </c>
+      <c r="D9" s="13">
+        <v>45.3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H9" s="12">
+        <f>(B9-32)/1.8</f>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I9" s="13">
+        <f>(C9-32)/1.8</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="J9" s="9">
+        <f>D9*1000/3415.179*1000</f>
+        <v>13264.312060949074</v>
+      </c>
+      <c r="K9" s="9">
+        <f>E9*1000</f>
+        <v>3500</v>
+      </c>
+      <c r="L9" s="11">
+        <f>J9/K9</f>
+        <v>3.7898034459854499</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="29">
+        <v>-2.3110000000000001E-4</v>
+      </c>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9">
+        <v>60</v>
+      </c>
+      <c r="D10" s="13">
+        <v>42.8</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>15.4</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" ref="H10:I26" si="0">(B10-32)/1.8</f>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" ref="J10:J26" si="1">D10*1000/3415.179*1000</f>
+        <v>12532.286009020318</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" ref="K10:K26" si="2">E10*1000</f>
+        <v>3400</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" ref="L10:L26" si="3">J10/K10</f>
+        <v>3.6859664732412698</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29">
+        <v>3.2439000000000001E-3</v>
+      </c>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13">
+        <v>40.4</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>14.4</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>12.777777777777777</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="1"/>
+        <v>11829.54099916871</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="3"/>
+        <v>3.5847093936874881</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29">
+        <v>1.4880000000000001E-4</v>
+      </c>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>70</v>
+      </c>
+      <c r="C12" s="9">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>13.6</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="1"/>
+        <v>11038.952863085653</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="3"/>
+        <v>3.3451372312380765</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35">
+        <v>-2.9520000000000002E-4</v>
+      </c>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13">
+        <v>36</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="F13" s="11">
+        <v>13.1</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="1"/>
+        <v>10541.1751477741</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="3"/>
+        <v>3.2941172336794065</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45</v>
+      </c>
+      <c r="D14" s="13">
+        <v>34.9</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="1"/>
+        <v>10219.083684925447</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="3"/>
+        <v>3.1934636515392021</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>70</v>
+      </c>
+      <c r="C15" s="9">
+        <v>40</v>
+      </c>
+      <c r="D15" s="13">
+        <v>32.4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>12.1</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="1"/>
+        <v>9487.0576329966898</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="3"/>
+        <v>3.0603411719344162</v>
+      </c>
+      <c r="N15" s="24">
+        <v>45</v>
+      </c>
+      <c r="O15" s="28">
+        <f>9/5*N15+32</f>
+        <v>113</v>
+      </c>
+      <c r="P15" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="28">
+        <f>9/5*P15+32</f>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R15" s="27">
+        <f>R$5*(R$7+R$8*$N15+R$9*$N15^2+R$10*$N15^3+R$12*$N15^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="28">
+        <f>S$5/(S$7+S$8*Q15+S$9*Q15^2+S$10*O15+S$11*O15^2+S$12*Q15*O15)</f>
+        <v>2.7938494106227356</v>
+      </c>
+      <c r="T15" s="27">
+        <f>R$5</f>
+        <v>10750</v>
+      </c>
+      <c r="U15" s="30">
+        <f>S$5</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13">
+        <v>29.9</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="1"/>
+        <v>8755.0315810679331</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="3"/>
+        <v>2.8242037358283656</v>
+      </c>
+      <c r="N16" s="24">
+        <v>44</v>
+      </c>
+      <c r="O16" s="28">
+        <f t="shared" ref="O16:Q56" si="4">9/5*N16+32</f>
+        <v>111.2</v>
+      </c>
+      <c r="P16" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R16" s="27">
+        <f>R$5*(R$7+R$8*$N16+R$9*$N16^2+R$10*$N16^3+R$12*$N16^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="28">
+        <f t="shared" ref="S16:S56" si="5">S$5/(S$7+S$8*Q16+S$9*Q16^2+S$10*O16+S$11*O16^2+S$12*Q16*O16)</f>
+        <v>2.8612981755603286</v>
+      </c>
+      <c r="T16" s="27">
+        <f t="shared" ref="T16:U56" si="6">R$5</f>
+        <v>10750</v>
+      </c>
+      <c r="U16" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13">
+        <v>28.2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>11.1</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.1111111111111112</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="1"/>
+        <v>8257.2538657563764</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="2"/>
+        <v>3100</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="3"/>
+        <v>2.6636302792762505</v>
+      </c>
+      <c r="N17" s="24">
+        <v>43</v>
+      </c>
+      <c r="O17" s="28">
+        <f t="shared" si="4"/>
+        <v>109.4</v>
+      </c>
+      <c r="P17" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R17" s="27">
+        <f>R$5*(R$7+R$8*$N17+R$9*$N17^2+R$10*$N17^3+R$12*$N17^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="28">
+        <f t="shared" si="5"/>
+        <v>2.9295743535132508</v>
+      </c>
+      <c r="T17" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U17" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.8888888888888888</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="1"/>
+        <v>7613.0709400590713</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="3"/>
+        <v>2.537690313353024</v>
+      </c>
+      <c r="N18" s="24">
+        <v>42</v>
+      </c>
+      <c r="O18" s="28">
+        <f t="shared" si="4"/>
+        <v>107.60000000000001</v>
+      </c>
+      <c r="P18" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R18" s="27">
+        <f>R$5*(R$7+R$8*$N18+R$9*$N18^2+R$10*$N18^3+R$12*$N18^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="28">
+        <f t="shared" si="5"/>
+        <v>2.9985591105684875</v>
+      </c>
+      <c r="T18" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U18" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>70</v>
+      </c>
+      <c r="C19" s="9">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13">
+        <v>23.9</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>-6.6666666666666661</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="1"/>
+        <v>6998.1690564389155</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="3"/>
+        <v>2.3327230188129717</v>
+      </c>
+      <c r="N19" s="24">
+        <v>41</v>
+      </c>
+      <c r="O19" s="28">
+        <f t="shared" si="4"/>
+        <v>105.8</v>
+      </c>
+      <c r="P19" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R19" s="27">
+        <f>R$5*(R$7+R$8*$N19+R$9*$N19^2+R$10*$N19^3+R$12*$N19^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="28">
+        <f t="shared" si="5"/>
+        <v>3.0681181357132408</v>
+      </c>
+      <c r="T19" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U19" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>70</v>
+      </c>
+      <c r="C20" s="9">
+        <v>17</v>
+      </c>
+      <c r="D20" s="13">
+        <v>22.6</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="F20" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="0"/>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="1"/>
+        <v>6617.5155094359616</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="3"/>
+        <v>2.2819018998055038</v>
+      </c>
+      <c r="N20" s="24">
+        <v>40</v>
+      </c>
+      <c r="O20" s="28">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="P20" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R20" s="27">
+        <f>R$5*(R$7+R$8*$N20+R$9*$N20^2+R$10*$N20^3+R$12*$N20^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="28">
+        <f t="shared" si="5"/>
+        <v>3.1381009653061032</v>
+      </c>
+      <c r="T20" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U20" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>70</v>
+      </c>
+      <c r="C21" s="9">
+        <v>15</v>
+      </c>
+      <c r="D21" s="13">
+        <v>21.8</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="F21" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>-9.4444444444444446</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="1"/>
+        <v>6383.2671728187606</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="3"/>
+        <v>2.201126611316814</v>
+      </c>
+      <c r="N21" s="24">
+        <v>39</v>
+      </c>
+      <c r="O21" s="28">
+        <f t="shared" si="4"/>
+        <v>102.2</v>
+      </c>
+      <c r="P21" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R21" s="27">
+        <f>R$5*(R$7+R$8*$N21+R$9*$N21^2+R$10*$N21^3+R$12*$N21^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="28">
+        <f t="shared" si="5"/>
+        <v>3.2083404344601623</v>
+      </c>
+      <c r="T21" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U21" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>70</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="F22" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>-12.222222222222221</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="1"/>
+        <v>5709.8032050443035</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="3"/>
+        <v>2.0392154303729657</v>
+      </c>
+      <c r="N22" s="24">
+        <v>38</v>
+      </c>
+      <c r="O22" s="28">
+        <f t="shared" si="4"/>
+        <v>100.4</v>
+      </c>
+      <c r="P22" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R22" s="27">
+        <f>R$5*(R$7+R$8*$N22+R$9*$N22^2+R$10*$N22^3+R$12*$N22^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="28">
+        <f t="shared" si="5"/>
+        <v>3.2786522883973617</v>
+      </c>
+      <c r="T22" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U22" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="F23" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="1"/>
+        <v>5065.6202793469974</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.8091500997667849</v>
+      </c>
+      <c r="N23" s="24">
+        <v>37</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="4"/>
+        <v>98.600000000000009</v>
+      </c>
+      <c r="P23" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R23" s="27">
+        <f>R$5*(R$7+R$8*$N23+R$9*$N23^2+R$10*$N23^3+R$12*$N23^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="28">
+        <f t="shared" si="5"/>
+        <v>3.3488349890176483</v>
+      </c>
+      <c r="T23" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U23" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="F24" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>-17.777777777777779</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="1"/>
+        <v>4421.4373536496914</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="3"/>
+        <v>1.6375693902406265</v>
+      </c>
+      <c r="N24" s="24">
+        <v>36</v>
+      </c>
+      <c r="O24" s="28">
+        <f t="shared" si="4"/>
+        <v>96.8</v>
+      </c>
+      <c r="P24" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R24" s="27">
+        <f>R$5*(R$7+R$8*$N24+R$9*$N24^2+R$10*$N24^3+R$12*$N24^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="28">
+        <f t="shared" si="5"/>
+        <v>3.4186697533317889</v>
+      </c>
+      <c r="T24" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U24" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-5</v>
+      </c>
+      <c r="D25" s="13">
+        <v>12.9</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="F25" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
+        <v>-20.555555555555554</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="1"/>
+        <v>3777.2544279523854</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="2"/>
+        <v>2600</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="3"/>
+        <v>1.4527901645970713</v>
+      </c>
+      <c r="N25" s="24">
+        <v>35</v>
+      </c>
+      <c r="O25" s="28">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="P25" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R25" s="27">
+        <f>R$5*(R$7+R$8*$N25+R$9*$N25^2+R$10*$N25^3+R$12*$N25^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="28">
+        <f t="shared" si="5"/>
+        <v>3.4879208607752368</v>
+      </c>
+      <c r="T25" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U25" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14">
+        <v>70</v>
+      </c>
+      <c r="C26" s="15">
+        <v>-10</v>
+      </c>
+      <c r="D26" s="16">
+        <v>10.6</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="F26" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="0"/>
+        <v>-23.333333333333332</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="1"/>
+        <v>3103.7904601779292</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="2"/>
+        <v>2600</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1937655616068958</v>
+      </c>
+      <c r="N26" s="24">
+        <v>34</v>
+      </c>
+      <c r="O26" s="28">
+        <f t="shared" si="4"/>
+        <v>93.2</v>
+      </c>
+      <c r="P26" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R26" s="27">
+        <f>R$5*(R$7+R$8*$N26+R$9*$N26^2+R$10*$N26^3+R$12*$N26^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="28">
+        <f t="shared" si="5"/>
+        <v>3.5563362654830111</v>
+      </c>
+      <c r="T26" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U26" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N27" s="24">
+        <v>33</v>
+      </c>
+      <c r="O27" s="28">
+        <f t="shared" si="4"/>
+        <v>91.4</v>
+      </c>
+      <c r="P27" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R27" s="27">
+        <f>R$5*(R$7+R$8*$N27+R$9*$N27^2+R$10*$N27^3+R$12*$N27^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="28">
+        <f t="shared" si="5"/>
+        <v>3.6236485470974564</v>
+      </c>
+      <c r="T27" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U27" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N28" s="24">
+        <v>32</v>
+      </c>
+      <c r="O28" s="28">
+        <f t="shared" si="4"/>
+        <v>89.6</v>
+      </c>
+      <c r="P28" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R28" s="27">
+        <f>R$5*(R$7+R$8*$N28+R$9*$N28^2+R$10*$N28^3+R$12*$N28^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="28">
+        <f t="shared" si="5"/>
+        <v>3.6895762293617698</v>
+      </c>
+      <c r="T28" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U28" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N29" s="24">
+        <v>31</v>
+      </c>
+      <c r="O29" s="28">
+        <f t="shared" si="4"/>
+        <v>87.800000000000011</v>
+      </c>
+      <c r="P29" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R29" s="27">
+        <f>R$5*(R$7+R$8*$N29+R$9*$N29^2+R$10*$N29^3+R$12*$N29^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="28">
+        <f t="shared" si="5"/>
+        <v>3.7538254894305929</v>
+      </c>
+      <c r="T29" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U29" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N30" s="24">
+        <v>30</v>
+      </c>
+      <c r="O30" s="28">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="P30" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R30" s="27">
+        <f>R$5*(R$7+R$8*$N30+R$9*$N30^2+R$10*$N30^3+R$12*$N30^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="28">
+        <f t="shared" si="5"/>
+        <v>3.8160922723895601</v>
+      </c>
+      <c r="T30" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U30" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N31" s="24">
+        <v>29</v>
+      </c>
+      <c r="O31" s="28">
+        <f t="shared" si="4"/>
+        <v>84.2</v>
+      </c>
+      <c r="P31" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R31" s="27">
+        <f>R$5*(R$7+R$8*$N31+R$9*$N31^2+R$10*$N31^3+R$12*$N31^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="28">
+        <f t="shared" si="5"/>
+        <v>3.8760648149074761</v>
+      </c>
+      <c r="T31" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U31" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N32" s="24">
+        <v>28</v>
+      </c>
+      <c r="O32" s="28">
+        <f t="shared" si="4"/>
+        <v>82.4</v>
+      </c>
+      <c r="P32" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R32" s="27">
+        <f>R$5*(R$7+R$8*$N32+R$9*$N32^2+R$10*$N32^3+R$12*$N32^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="28">
+        <f t="shared" si="5"/>
+        <v>3.933426569369618</v>
+      </c>
+      <c r="T32" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U32" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="33" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N33" s="24">
+        <v>27</v>
+      </c>
+      <c r="O33" s="28">
+        <f t="shared" si="4"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="P33" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R33" s="27">
+        <f>R$5*(R$7+R$8*$N33+R$9*$N33^2+R$10*$N33^3+R$12*$N33^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="28">
+        <f t="shared" si="5"/>
+        <v>3.9878595055344257</v>
+      </c>
+      <c r="T33" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U33" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="34" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N34" s="24">
+        <v>26</v>
+      </c>
+      <c r="O34" s="28">
+        <f t="shared" si="4"/>
+        <v>78.800000000000011</v>
+      </c>
+      <c r="P34" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R34" s="27">
+        <f>R$5*(R$7+R$8*$N34+R$9*$N34^2+R$10*$N34^3+R$12*$N34^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="28">
+        <f t="shared" si="5"/>
+        <v>4.0390477511646976</v>
+      </c>
+      <c r="T34" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U34" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N35" s="24">
+        <v>25</v>
+      </c>
+      <c r="O35" s="28">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="P35" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R35" s="27">
+        <f>R$5*(R$7+R$8*$N35+R$9*$N35^2+R$10*$N35^3+R$12*$N35^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" si="5"/>
+        <v>4.0866815168251955</v>
+      </c>
+      <c r="T35" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U35" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N36" s="24">
+        <v>24</v>
+      </c>
+      <c r="O36" s="28">
+        <f t="shared" si="4"/>
+        <v>75.2</v>
+      </c>
+      <c r="P36" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R36" s="27">
+        <f>R$5*(R$7+R$8*$N36+R$9*$N36^2+R$10*$N36^3+R$12*$N36^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="28">
+        <f t="shared" si="5"/>
+        <v>4.1304612338865274</v>
+      </c>
+      <c r="T36" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U36" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N37" s="24">
+        <v>23</v>
+      </c>
+      <c r="O37" s="28">
+        <f t="shared" si="4"/>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="P37" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R37" s="27">
+        <f>R$5*(R$7+R$8*$N37+R$9*$N37^2+R$10*$N37^3+R$12*$N37^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="28">
+        <f t="shared" si="5"/>
+        <v>4.1701018196322712</v>
+      </c>
+      <c r="T37" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U37" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N38" s="24">
+        <v>22</v>
+      </c>
+      <c r="O38" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="P38" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R38" s="27">
+        <f>R$5*(R$7+R$8*$N38+R$9*$N38^2+R$10*$N38^3+R$12*$N38^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2053369702106949</v>
+      </c>
+      <c r="T38" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U38" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N39" s="24">
+        <v>21</v>
+      </c>
+      <c r="O39" s="28">
+        <f t="shared" si="4"/>
+        <v>69.800000000000011</v>
+      </c>
+      <c r="P39" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R39" s="27">
+        <f>R$5*(R$7+R$8*$N39+R$9*$N39^2+R$10*$N39^3+R$12*$N39^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2359233719921692</v>
+      </c>
+      <c r="T39" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U39" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N40" s="24">
+        <v>20</v>
+      </c>
+      <c r="O40" s="28">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="P40" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R40" s="27">
+        <f>R$5*(R$7+R$8*$N40+R$9*$N40^2+R$10*$N40^3+R$12*$N40^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2616447156062716</v>
+      </c>
+      <c r="T40" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U40" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N41" s="24">
+        <v>19</v>
+      </c>
+      <c r="O41" s="28">
+        <f t="shared" si="4"/>
+        <v>66.2</v>
+      </c>
+      <c r="P41" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R41" s="27">
+        <f>R$5*(R$7+R$8*$N41+R$9*$N41^2+R$10*$N41^3+R$12*$N41^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2823153953006905</v>
+      </c>
+      <c r="T41" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U41" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N42" s="24">
+        <v>18</v>
+      </c>
+      <c r="O42" s="28">
+        <f t="shared" si="4"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="P42" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R42" s="27">
+        <f>R$5*(R$7+R$8*$N42+R$9*$N42^2+R$10*$N42^3+R$12*$N42^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2977837798108158</v>
+      </c>
+      <c r="T42" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U42" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N43" s="24">
+        <v>17</v>
+      </c>
+      <c r="O43" s="28">
+        <f t="shared" si="4"/>
+        <v>62.6</v>
+      </c>
+      <c r="P43" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R43" s="27">
+        <f>R$5*(R$7+R$8*$N43+R$9*$N43^2+R$10*$N43^3+R$12*$N43^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="28">
+        <f t="shared" si="5"/>
+        <v>4.3079349498689536</v>
+      </c>
+      <c r="T43" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U43" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N44" s="24">
+        <v>16</v>
+      </c>
+      <c r="O44" s="28">
+        <f t="shared" si="4"/>
+        <v>60.8</v>
+      </c>
+      <c r="P44" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R44" s="27">
+        <f>R$5*(R$7+R$8*$N44+R$9*$N44^2+R$10*$N44^3+R$12*$N44^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="28">
+        <f t="shared" si="5"/>
+        <v>4.3126928116741938</v>
+      </c>
+      <c r="T44" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U44" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N45" s="24">
+        <v>15</v>
+      </c>
+      <c r="O45" s="28">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="P45" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R45" s="27">
+        <f>R$5*(R$7+R$8*$N45+R$9*$N45^2+R$10*$N45^3+R$12*$N45^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="28">
+        <f t="shared" si="5"/>
+        <v>4.3120215145726277</v>
+      </c>
+      <c r="T45" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U45" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="46" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N46" s="24">
+        <v>14</v>
+      </c>
+      <c r="O46" s="28">
+        <f t="shared" si="4"/>
+        <v>57.2</v>
+      </c>
+      <c r="P46" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R46" s="27">
+        <f>R$5*(R$7+R$8*$N46+R$9*$N46^2+R$10*$N46^3+R$12*$N46^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="28">
+        <f t="shared" si="5"/>
+        <v>4.3059261239927302</v>
+      </c>
+      <c r="T46" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U46" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="47" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N47" s="24">
+        <v>13</v>
+      </c>
+      <c r="O47" s="28">
+        <f t="shared" si="4"/>
+        <v>55.400000000000006</v>
+      </c>
+      <c r="P47" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R47" s="27">
+        <f>R$5*(R$7+R$8*$N47+R$9*$N47^2+R$10*$N47^3+R$12*$N47^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2944525261703177</v>
+      </c>
+      <c r="T47" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U47" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N48" s="24">
+        <v>12</v>
+      </c>
+      <c r="O48" s="28">
+        <f t="shared" si="4"/>
+        <v>53.6</v>
+      </c>
+      <c r="P48" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R48" s="27">
+        <f>R$5*(R$7+R$8*$N48+R$9*$N48^2+R$10*$N48^3+R$12*$N48^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2776865679941798</v>
+      </c>
+      <c r="T48" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U48" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="49" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N49" s="24">
+        <v>11</v>
+      </c>
+      <c r="O49" s="28">
+        <f t="shared" si="4"/>
+        <v>51.8</v>
+      </c>
+      <c r="P49" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R49" s="27">
+        <f>R$5*(R$7+R$8*$N49+R$9*$N49^2+R$10*$N49^3+R$12*$N49^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2557524619141125</v>
+      </c>
+      <c r="T49" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U49" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="50" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N50" s="24">
+        <v>10</v>
+      </c>
+      <c r="O50" s="28">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="P50" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R50" s="27">
+        <f>R$5*(R$7+R$8*$N50+R$9*$N50^2+R$10*$N50^3+R$12*$N50^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="28">
+        <f t="shared" si="5"/>
+        <v>4.2288105107992529</v>
+      </c>
+      <c r="T50" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U50" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="51" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N51" s="24">
+        <v>9</v>
+      </c>
+      <c r="O51" s="28">
+        <f t="shared" si="4"/>
+        <v>48.2</v>
+      </c>
+      <c r="P51" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R51" s="27">
+        <f>R$5*(R$7+R$8*$N51+R$9*$N51^2+R$10*$N51^3+R$12*$N51^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="28">
+        <f t="shared" si="5"/>
+        <v>4.1970542295730073</v>
+      </c>
+      <c r="T51" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U51" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="52" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N52" s="24">
+        <v>8</v>
+      </c>
+      <c r="O52" s="28">
+        <f t="shared" si="4"/>
+        <v>46.4</v>
+      </c>
+      <c r="P52" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R52" s="27">
+        <f>R$5*(R$7+R$8*$N52+R$9*$N52^2+R$10*$N52^3+R$12*$N52^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="28">
+        <f t="shared" si="5"/>
+        <v>4.1607069582770526</v>
+      </c>
+      <c r="T52" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U52" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="53" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N53" s="24">
+        <v>7</v>
+      </c>
+      <c r="O53" s="28">
+        <f t="shared" si="4"/>
+        <v>44.6</v>
+      </c>
+      <c r="P53" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R53" s="27">
+        <f>R$5*(R$7+R$8*$N53+R$9*$N53^2+R$10*$N53^3+R$12*$N53^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="28">
+        <f t="shared" si="5"/>
+        <v>4.1200180741447463</v>
+      </c>
+      <c r="T53" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U53" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="54" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N54" s="24">
+        <v>6</v>
+      </c>
+      <c r="O54" s="28">
+        <f t="shared" si="4"/>
+        <v>42.8</v>
+      </c>
+      <c r="P54" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R54" s="27">
+        <f>R$5*(R$7+R$8*$N54+R$9*$N54^2+R$10*$N54^3+R$12*$N54^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="28">
+        <f t="shared" si="5"/>
+        <v>4.0752589178705678</v>
+      </c>
+      <c r="T54" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U54" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="55" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N55" s="24">
+        <v>5</v>
+      </c>
+      <c r="O55" s="28">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="P55" s="25">
+        <v>22</v>
+      </c>
+      <c r="Q55" s="28">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R55" s="27">
+        <f>R$5*(R$7+R$8*$N55+R$9*$N55^2+R$10*$N55^3+R$12*$N55^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="28">
+        <f t="shared" si="5"/>
+        <v>4.0267185514965043</v>
+      </c>
+      <c r="T55" s="27">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U55" s="30">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="56" spans="14:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="31">
+        <v>4</v>
+      </c>
+      <c r="O56" s="33">
+        <f t="shared" si="4"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="P56" s="36">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="33">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R56" s="32">
+        <f>R$5*(R$7+R$8*$N56+R$9*$N56^2+R$10*$N56^3+R$12*$N56^4)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="33">
+        <f t="shared" si="5"/>
+        <v>3.9746994624948897</v>
+      </c>
+      <c r="T56" s="32">
+        <f t="shared" si="6"/>
+        <v>10750</v>
+      </c>
+      <c r="U56" s="34">
+        <f t="shared" si="6"/>
+        <v>3.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>